--- a/regions/10/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/10/infrastruqtura/infrastruqtura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -571,7 +571,7 @@
     <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -586,8 +586,10 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="6"/>
       <c r="B2" s="7">
         <v>2011</v>
@@ -622,8 +624,14 @@
       <c r="L2" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -660,8 +668,14 @@
       <c r="L3" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="12">
+        <v>100</v>
+      </c>
+      <c r="N3" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -698,8 +712,14 @@
       <c r="L4" s="13">
         <v>98.618854469539784</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="13">
+        <v>98.947188642071083</v>
+      </c>
+      <c r="N4" s="13">
+        <v>99.169228019469202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -710,7 +730,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -721,7 +741,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -736,8 +756,10 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>2011</v>
@@ -772,8 +794,14 @@
       <c r="L8" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -810,8 +838,14 @@
       <c r="L9" s="14">
         <v>99.722811252066165</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="14">
+        <v>99.864280120643784</v>
+      </c>
+      <c r="N9" s="14">
+        <v>99.762219296703421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
@@ -848,8 +882,14 @@
       <c r="L10" s="14">
         <v>0.27718874793382958</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="14">
+        <v>0.13571987935621463</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.23778070329657519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -886,8 +926,14 @@
       <c r="L11" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
@@ -924,8 +970,14 @@
       <c r="L12" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -962,8 +1014,14 @@
       <c r="L13" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -974,7 +1032,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -985,7 +1043,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -995,8 +1053,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
